--- a/Data/Excel/技能配置.xlsx
+++ b/Data/Excel/技能配置.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15810" windowHeight="9555"/>
+    <workbookView windowWidth="18825" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="技能配置" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -34,7 +33,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -51,7 +49,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -60,7 +57,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -74,7 +70,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+  <si>
+    <t>ResSkill</t>
+  </si>
   <si>
     <t>required_key</t>
   </si>
@@ -85,96 +84,68 @@
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>target_type</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>logic_path</t>
+  </si>
+  <si>
+    <t>template_create_remote_id</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>ResSkill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能目标类型</t>
   </si>
   <si>
     <t>技能CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能执行的逻辑路径文件</t>
   </si>
   <si>
     <t>创建远程ID(Template_Create_Remote生效)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template_create_remote_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能目标类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建子弹1</t>
   </si>
   <si>
     <t>TargetForward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能执行的逻辑路径文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Config/Skill/Template_Create_Remote.bytes</t>
-  </si>
-  <si>
-    <t>logic_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,34 +154,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -218,9 +500,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -232,10 +756,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -526,113 +1097,113 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
     <col min="3" max="4" width="16" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="46" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="3" spans="2:7">
+      <c r="B3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -640,19 +1211,22 @@
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1">
         <v>0.1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/Excel/技能配置.xlsx
+++ b/Data/Excel/技能配置.xlsx
@@ -580,7 +580,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Data/Excel/技能配置.xlsx
+++ b/Data/Excel/技能配置.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="9555"/>
+    <workbookView windowWidth="28080" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="技能配置" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -34,7 +33,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -96,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>ResSkill</t>
   </si>
@@ -116,12 +114,18 @@
     <t>float</t>
   </si>
   <si>
+    <t>1-1000通用技能</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>target_type</t>
   </si>
   <si>
@@ -134,12 +138,18 @@
     <t>template_create_remote_id</t>
   </si>
   <si>
+    <t>后续ID使用飞船ID00</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
     <t>技能名称</t>
   </si>
   <si>
+    <t>技能类型</t>
+  </si>
+  <si>
     <t>技能目标类型</t>
   </si>
   <si>
@@ -152,63 +162,65 @@
     <t>创建远程ID(Template_Create_Remote生效)</t>
   </si>
   <si>
+    <t>碰撞伤害</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Config/Skill/Template_Body_Collide.bytes</t>
+  </si>
+  <si>
+    <t>101-200创建子弹</t>
+  </si>
+  <si>
+    <t>创建子弹1</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
     <t>TargetForward</t>
   </si>
   <si>
     <t>Config/Skill/Template_Create_Remote.bytes</t>
   </si>
   <si>
-    <t>required</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Active</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰撞伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Passive</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Config/Skill/Template_Body_Collide.bytes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建子弹1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1000通用技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后续ID使用飞船ID00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>创建子弹2</t>
+  </si>
+  <si>
+    <t>创建子弹3</t>
+  </si>
+  <si>
+    <t>创建子弹4</t>
+  </si>
+  <si>
+    <t>创建子弹5</t>
+  </si>
+  <si>
+    <t>创建子弹6</t>
+  </si>
+  <si>
+    <t>创建子弹7</t>
+  </si>
+  <si>
+    <t>创建子弹8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,44 +230,344 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -263,9 +575,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -277,10 +831,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -571,19 +1172,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
@@ -594,7 +1195,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +1206,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -620,7 +1221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -628,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -643,105 +1244,295 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1">
+        <v>101</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="F6" s="1">
         <v>0.1</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="2:8">
+      <c r="B7" s="1">
+        <v>102</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="1">
+        <v>103</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1">
+        <v>104</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="1">
+        <v>105</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="1">
+        <v>106</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="1">
+        <v>107</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="1">
+        <v>108</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="1">
+        <v>109</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/Excel/技能配置.xlsx
+++ b/Data/Excel/技能配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13200"/>
+    <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="技能配置" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>ResSkill</t>
   </si>
@@ -186,10 +186,13 @@
     <t>TargetForward</t>
   </si>
   <si>
+    <t>Config/Skill/Template_SetForward_Create_Remote.bytes</t>
+  </si>
+  <si>
+    <t>创建子弹2</t>
+  </si>
+  <si>
     <t>Config/Skill/Template_Create_Remote.bytes</t>
-  </si>
-  <si>
-    <t>创建子弹2</t>
   </si>
   <si>
     <t>创建子弹3</t>
@@ -229,6 +232,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -237,99 +314,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,6 +339,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -353,7 +356,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,13 +385,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,169 +559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,24 +581,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,17 +605,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -637,6 +616,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,6 +653,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -681,10 +684,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,133 +696,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1181,7 +1184,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1385,7 +1388,7 @@
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8" s="1">
         <v>3</v>
@@ -1396,7 +1399,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>28</v>
@@ -1408,7 +1411,7 @@
         <v>0.1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9" s="1">
         <v>4</v>
@@ -1419,7 +1422,7 @@
         <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>28</v>
@@ -1431,7 +1434,7 @@
         <v>0.1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H10" s="1">
         <v>5</v>
@@ -1442,7 +1445,7 @@
         <v>106</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>28</v>
@@ -1454,7 +1457,7 @@
         <v>0.1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H11" s="1">
         <v>6</v>
@@ -1465,7 +1468,7 @@
         <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>28</v>
@@ -1477,7 +1480,7 @@
         <v>0.1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H12" s="1">
         <v>7</v>
@@ -1488,7 +1491,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>28</v>
@@ -1500,7 +1503,7 @@
         <v>0.1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H13" s="1">
         <v>8</v>
@@ -1511,7 +1514,7 @@
         <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>28</v>
@@ -1523,7 +1526,7 @@
         <v>0.1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H14" s="1">
         <v>9</v>

--- a/Data/Excel/技能配置.xlsx
+++ b/Data/Excel/技能配置.xlsx
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>ResSkill</t>
   </si>
@@ -135,6 +135,9 @@
     <t>logic_path</t>
   </si>
   <si>
+    <t>template_create_remote_hangpoint</t>
+  </si>
+  <si>
     <t>template_create_remote_id</t>
   </si>
   <si>
@@ -159,7 +162,13 @@
     <t>技能执行的逻辑路径文件</t>
   </si>
   <si>
-    <t>创建远程ID(Template_Create_Remote生效)</t>
+    <t>创建远程挂点(SK_TemplateCreateRemoteAction生效)</t>
+  </si>
+  <si>
+    <t>创建远程ID(SK_TemplateCreateRemoteAction生效)</t>
+  </si>
+  <si>
+    <t>1-50被动技能</t>
   </si>
   <si>
     <t>碰撞伤害</t>
@@ -174,30 +183,45 @@
     <t>Config/Skill/Template_Body_Collide.bytes</t>
   </si>
   <si>
+    <t>51-99玩家技能</t>
+  </si>
+  <si>
+    <t>玩家技能</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>TargetForward</t>
+  </si>
+  <si>
+    <t>Config/Skill/Template_Create_Remote.bytes</t>
+  </si>
+  <si>
+    <t>FirePos</t>
+  </si>
+  <si>
     <t>101-200创建子弹</t>
   </si>
   <si>
     <t>创建子弹1</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>TargetForward</t>
-  </si>
-  <si>
     <t>Config/Skill/Template_SetForward_Create_Remote.bytes</t>
   </si>
   <si>
     <t>创建子弹2</t>
   </si>
   <si>
-    <t>Config/Skill/Template_Create_Remote.bytes</t>
-  </si>
-  <si>
     <t>创建子弹3</t>
   </si>
   <si>
+    <t>FirePosLeft</t>
+  </si>
+  <si>
+    <t>FirePosRight</t>
+  </si>
+  <si>
     <t>创建子弹4</t>
   </si>
   <si>
@@ -211,6 +235,144 @@
   </si>
   <si>
     <t>创建子弹8</t>
+  </si>
+  <si>
+    <t>FirePosUp</t>
+  </si>
+  <si>
+    <t>FirePosDown</t>
+  </si>
+  <si>
+    <t>创建子弹11</t>
+  </si>
+  <si>
+    <t>创建子弹12</t>
+  </si>
+  <si>
+    <t>创建子弹13</t>
+  </si>
+  <si>
+    <t>创建子弹14</t>
+  </si>
+  <si>
+    <t>创建子弹15</t>
+  </si>
+  <si>
+    <t>创建子弹16</t>
+  </si>
+  <si>
+    <t>FirePosLeft1</t>
+  </si>
+  <si>
+    <t>FirePosRight1</t>
+  </si>
+  <si>
+    <t>创建子弹17</t>
+  </si>
+  <si>
+    <t>创建子弹19</t>
+  </si>
+  <si>
+    <t>创建子弹20</t>
+  </si>
+  <si>
+    <t>创建子弹21</t>
+  </si>
+  <si>
+    <t>创建子弹22</t>
+  </si>
+  <si>
+    <t>创建子弹23</t>
+  </si>
+  <si>
+    <t>创建子弹25</t>
+  </si>
+  <si>
+    <t>创建子弹29</t>
+  </si>
+  <si>
+    <t>创建子弹30</t>
+  </si>
+  <si>
+    <t>创建子弹31</t>
+  </si>
+  <si>
+    <t>创建子弹32</t>
+  </si>
+  <si>
+    <t>创建子弹33</t>
+  </si>
+  <si>
+    <t>创建子弹34</t>
+  </si>
+  <si>
+    <t>创建子弹35</t>
+  </si>
+  <si>
+    <t>创建子弹36</t>
+  </si>
+  <si>
+    <t>创建子弹37</t>
+  </si>
+  <si>
+    <t>创建子弹38</t>
+  </si>
+  <si>
+    <t>创建子弹39</t>
+  </si>
+  <si>
+    <t>创建子弹40</t>
+  </si>
+  <si>
+    <t>创建子弹41</t>
+  </si>
+  <si>
+    <t>创建子弹42</t>
+  </si>
+  <si>
+    <t>创建子弹43</t>
+  </si>
+  <si>
+    <t>创建子弹44</t>
+  </si>
+  <si>
+    <t>创建子弹45</t>
+  </si>
+  <si>
+    <t>创建子弹46</t>
+  </si>
+  <si>
+    <t>创建子弹47</t>
+  </si>
+  <si>
+    <t>创建子弹48</t>
+  </si>
+  <si>
+    <t>创建子弹49</t>
+  </si>
+  <si>
+    <t>创建子弹50</t>
+  </si>
+  <si>
+    <t>创建子弹51</t>
+  </si>
+  <si>
+    <t>创建子弹52</t>
+  </si>
+  <si>
+    <t>创建子弹53</t>
+  </si>
+  <si>
+    <t>创建子弹54</t>
+  </si>
+  <si>
+    <t>创建子弹55</t>
+  </si>
+  <si>
+    <t>创建子弹2001_1</t>
+  </si>
+  <si>
+    <t>Config/Skill/Boss_2001_1.bytes</t>
   </si>
 </sst>
 </file>
@@ -219,9 +381,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -239,9 +401,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,8 +438,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,14 +502,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,9 +525,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,76 +537,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -382,6 +544,144 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -397,49 +697,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,109 +715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,10 +743,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -605,26 +765,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,15 +785,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,8 +807,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,7 +849,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,133 +858,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1181,24 +1343,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
     <col min="3" max="5" width="16" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="46" style="1" customWidth="1"/>
-    <col min="8" max="8" width="41.875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="7" max="8" width="46" style="1" customWidth="1"/>
+    <col min="9" max="9" width="41.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1223,8 +1385,11 @@
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:8">
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1244,10 +1409,13 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1272,264 +1440,1750 @@
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>1</v>
+      <c r="A5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1">
         <v>0.1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="1">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1">
+        <v>101</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="1">
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="1">
         <v>102</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="1">
+    <row r="9" spans="2:9">
+      <c r="B9" s="1">
         <v>103</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="1">
-        <v>104</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1">
         <v>0.1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="1">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="1">
+        <v>104</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="1">
+    <row r="11" s="1" customFormat="1" spans="2:9">
+      <c r="B11" s="1">
+        <v>1041</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:9">
+      <c r="B12" s="1">
+        <v>1042</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="1">
         <v>105</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:9">
+      <c r="B14" s="1">
+        <v>1051</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="2:9">
+      <c r="B15" s="1">
+        <v>1052</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="1">
+        <v>106</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="2:9">
+      <c r="B17" s="1">
+        <v>1061</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:9">
+      <c r="B18" s="1">
+        <v>1062</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="1">
+        <v>107</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="2:9">
+      <c r="B20" s="1">
+        <v>1071</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="2:9">
+      <c r="B21" s="1">
+        <v>1072</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="1">
+        <v>108</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="1">
+        <v>109</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="2:9">
+      <c r="B24" s="1">
+        <v>1091</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:9">
+      <c r="B25" s="1">
+        <v>1092</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="2:9">
+      <c r="B26" s="1">
+        <v>1093</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="2:9">
+      <c r="B27" s="1">
+        <v>1094</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:9">
+      <c r="B28" s="1">
+        <v>111</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="1">
+        <v>112</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="1">
+        <v>113</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="1">
+        <v>114</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="1">
+        <v>115</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="1">
+        <v>116</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="2:9">
+      <c r="B34" s="1">
+        <v>1163</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="2:9">
+      <c r="B35" s="1">
+        <v>1164</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="1">
+        <v>117</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="1">
+        <v>119</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="1">
+        <v>120</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="1">
+        <v>121</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="1">
+        <v>122</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="1">
+        <v>123</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:9">
+      <c r="B42" s="1">
+        <v>125</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:9">
+      <c r="B43" s="1">
+        <v>129</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" s="1">
         <v>29</v>
       </c>
-      <c r="F10" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="1">
-        <v>106</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="1">
+        <v>130</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="1">
+        <v>131</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="1">
+        <v>132</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="1">
+        <v>133</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="1">
+        <v>134</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="1">
+        <v>135</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" s="1">
         <v>35</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="1">
-        <v>107</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="1">
+        <v>136</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="1">
         <v>36</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="1">
-        <v>108</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="1">
+        <v>137</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" s="1">
         <v>37</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="1">
-        <v>109</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="1">
+        <v>138</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="1">
         <v>38</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="1">
-        <v>9</v>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="1">
+        <v>139</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="1">
+        <v>140</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="1">
+        <v>141</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="1">
+        <v>142</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="1">
+        <v>143</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="1">
+        <v>144</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I58" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="1">
+        <v>145</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="1">
+        <v>146</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I60" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="1">
+        <v>147</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="1">
+        <v>148</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I62" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="1">
+        <v>149</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="1">
+        <v>150</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="1">
+        <v>151</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="1">
+        <v>152</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="1">
+        <v>153</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="1">
+        <v>154</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="1">
+        <v>155</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I69" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="1">
+        <v>201</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/技能配置.xlsx
+++ b/Data/Excel/技能配置.xlsx
@@ -381,9 +381,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -394,8 +394,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,20 +435,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,11 +478,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -522,21 +537,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -544,6 +544,42 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -559,7 +595,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,6 +631,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -583,25 +649,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,103 +709,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,13 +727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,6 +738,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -827,17 +838,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -846,10 +846,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -858,133 +858,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1346,7 +1346,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Data/Excel/技能配置.xlsx
+++ b/Data/Excel/技能配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="28695" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="技能配置" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>ResSkill</t>
   </si>
@@ -183,7 +183,7 @@
     <t>Config/Skill/Template_Body_Collide.bytes</t>
   </si>
   <si>
-    <t>51-99玩家技能</t>
+    <t>51-99一般技能</t>
   </si>
   <si>
     <t>玩家技能</t>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>FirePos</t>
+  </si>
+  <si>
+    <t>喷火</t>
+  </si>
+  <si>
+    <t>Config/Skill/Skill_52.bytes</t>
+  </si>
+  <si>
+    <t>激光</t>
+  </si>
+  <si>
+    <t>Config/Skill/Skill_53.bytes</t>
   </si>
   <si>
     <t>101-200创建子弹</t>
@@ -394,29 +406,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -425,16 +414,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,24 +480,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,6 +493,14 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,6 +534,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -547,7 +559,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,13 +601,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,25 +655,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,49 +709,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,67 +733,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,17 +750,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -776,15 +777,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -796,6 +788,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,6 +839,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -846,10 +858,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -858,133 +870,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1343,10 +1355,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1525,145 +1537,133 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="2:7">
+      <c r="B7" s="1">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1">
+        <v>99999</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:7">
+      <c r="B8" s="1">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1">
+        <v>99999</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1">
         <v>101</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="1">
-        <v>102</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="1">
-        <v>103</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="1">
+        <v>102</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="1">
+        <v>103</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="1">
         <v>104</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:9">
-      <c r="B11" s="1">
-        <v>1041</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="2:9">
-      <c r="B12" s="1">
-        <v>1042</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>31</v>
@@ -1678,18 +1678,18 @@
         <v>33</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I12" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" s="1" customFormat="1" spans="2:9">
       <c r="B13" s="1">
-        <v>105</v>
+        <v>1041</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>31</v>
@@ -1698,24 +1698,24 @@
         <v>32</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I13" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:9">
       <c r="B14" s="1">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>31</v>
@@ -1724,24 +1724,24 @@
         <v>32</v>
       </c>
       <c r="F14" s="1">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="2:9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="1">
-        <v>1052</v>
+        <v>105</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>31</v>
@@ -1750,24 +1750,24 @@
         <v>32</v>
       </c>
       <c r="F15" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I15" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" s="1" customFormat="1" spans="2:9">
       <c r="B16" s="1">
-        <v>106</v>
+        <v>1051</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>31</v>
@@ -1776,24 +1776,24 @@
         <v>32</v>
       </c>
       <c r="F16" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I16" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:9">
       <c r="B17" s="1">
-        <v>1061</v>
+        <v>1052</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>31</v>
@@ -1802,24 +1802,24 @@
         <v>32</v>
       </c>
       <c r="F17" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I17" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="2:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="1">
-        <v>1062</v>
+        <v>106</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>31</v>
@@ -1834,44 +1834,44 @@
         <v>33</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I18" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" s="1" customFormat="1" spans="2:9">
       <c r="B19" s="1">
-        <v>107</v>
+        <v>1061</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I19" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="2:9">
       <c r="B20" s="1">
-        <v>1071</v>
+        <v>1062</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>31</v>
@@ -1880,24 +1880,24 @@
         <v>32</v>
       </c>
       <c r="F20" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I20" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="2:9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="1">
-        <v>1072</v>
+        <v>107</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>31</v>
@@ -1909,99 +1909,99 @@
         <v>0.2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I21" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" s="1" customFormat="1" spans="2:9">
       <c r="B22" s="1">
+        <v>1071</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="2:9">
+      <c r="B23" s="1">
+        <v>1072</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="1">
         <v>108</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="1">
         <v>0.1</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="1">
+      <c r="G24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="1">
+    <row r="25" spans="2:9">
+      <c r="B25" s="1">
         <v>109</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="2:9">
-      <c r="B24" s="1">
-        <v>1091</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="2:9">
-      <c r="B25" s="1">
-        <v>1092</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>31</v>
@@ -2016,7 +2016,7 @@
         <v>33</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I25" s="1">
         <v>9</v>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="26" s="1" customFormat="1" spans="2:9">
       <c r="B26" s="1">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>31</v>
@@ -2042,7 +2042,7 @@
         <v>33</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I26" s="1">
         <v>9</v>
@@ -2050,10 +2050,10 @@
     </row>
     <row r="27" s="1" customFormat="1" spans="2:9">
       <c r="B27" s="1">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>31</v>
@@ -2068,7 +2068,7 @@
         <v>33</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I27" s="1">
         <v>9</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="28" s="1" customFormat="1" spans="2:9">
       <c r="B28" s="1">
-        <v>111</v>
+        <v>1093</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>31</v>
@@ -2094,15 +2094,15 @@
         <v>33</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I28" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="2:9">
       <c r="B29" s="1">
-        <v>112</v>
+        <v>1094</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>50</v>
@@ -2117,21 +2117,21 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="I29" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="2:9">
       <c r="B30" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>31</v>
@@ -2149,15 +2149,15 @@
         <v>34</v>
       </c>
       <c r="I30" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>31</v>
@@ -2169,21 +2169,21 @@
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>31</v>
@@ -2192,7 +2192,7 @@
         <v>32</v>
       </c>
       <c r="F32" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>33</v>
@@ -2201,15 +2201,15 @@
         <v>34</v>
       </c>
       <c r="I32" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>31</v>
@@ -2221,21 +2221,21 @@
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I33" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="2:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
       <c r="B34" s="1">
-        <v>1163</v>
+        <v>115</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>31</v>
@@ -2244,24 +2244,24 @@
         <v>32</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="I34" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="2:9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" s="1">
-        <v>1164</v>
+        <v>116</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>31</v>
@@ -2273,21 +2273,21 @@
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I35" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" s="1" customFormat="1" spans="2:9">
       <c r="B36" s="1">
-        <v>117</v>
+        <v>1163</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>31</v>
@@ -2296,21 +2296,21 @@
         <v>32</v>
       </c>
       <c r="F36" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I36" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="2:9">
       <c r="B37" s="1">
-        <v>119</v>
+        <v>1164</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>58</v>
@@ -2322,24 +2322,24 @@
         <v>32</v>
       </c>
       <c r="F37" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I37" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="1">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>31</v>
@@ -2348,24 +2348,24 @@
         <v>32</v>
       </c>
       <c r="F38" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I38" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="1">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>31</v>
@@ -2374,7 +2374,7 @@
         <v>32</v>
       </c>
       <c r="F39" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>33</v>
@@ -2383,15 +2383,15 @@
         <v>34</v>
       </c>
       <c r="I39" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>31</v>
@@ -2400,7 +2400,7 @@
         <v>32</v>
       </c>
       <c r="F40" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>33</v>
@@ -2409,15 +2409,15 @@
         <v>34</v>
       </c>
       <c r="I40" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>31</v>
@@ -2435,15 +2435,15 @@
         <v>34</v>
       </c>
       <c r="I41" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="2:9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
       <c r="B42" s="1">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>31</v>
@@ -2461,15 +2461,15 @@
         <v>34</v>
       </c>
       <c r="I42" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="2:9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
       <c r="B43" s="1">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>31</v>
@@ -2487,67 +2487,67 @@
         <v>34</v>
       </c>
       <c r="I43" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:9">
+      <c r="B44" s="1">
+        <v>125</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:9">
+      <c r="B45" s="1">
+        <v>129</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="1">
         <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="1">
-        <v>130</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I44" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="1">
-        <v>131</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I45" s="1">
-        <v>31</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="1">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>31</v>
@@ -2565,15 +2565,15 @@
         <v>34</v>
       </c>
       <c r="I46" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="1">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>31</v>
@@ -2582,7 +2582,7 @@
         <v>32</v>
       </c>
       <c r="F47" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>33</v>
@@ -2591,15 +2591,15 @@
         <v>34</v>
       </c>
       <c r="I47" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="1">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>31</v>
@@ -2608,7 +2608,7 @@
         <v>32</v>
       </c>
       <c r="F48" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>33</v>
@@ -2617,15 +2617,15 @@
         <v>34</v>
       </c>
       <c r="I48" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="1">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>31</v>
@@ -2643,15 +2643,15 @@
         <v>34</v>
       </c>
       <c r="I49" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>31</v>
@@ -2669,15 +2669,15 @@
         <v>34</v>
       </c>
       <c r="I50" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="1">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>31</v>
@@ -2695,15 +2695,15 @@
         <v>34</v>
       </c>
       <c r="I51" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>31</v>
@@ -2721,15 +2721,15 @@
         <v>34</v>
       </c>
       <c r="I52" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="1">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>31</v>
@@ -2747,15 +2747,15 @@
         <v>34</v>
       </c>
       <c r="I53" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>31</v>
@@ -2773,15 +2773,15 @@
         <v>34</v>
       </c>
       <c r="I54" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="1">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>31</v>
@@ -2799,15 +2799,15 @@
         <v>34</v>
       </c>
       <c r="I55" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="1">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>31</v>
@@ -2825,15 +2825,15 @@
         <v>34</v>
       </c>
       <c r="I56" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="1">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>31</v>
@@ -2851,15 +2851,15 @@
         <v>34</v>
       </c>
       <c r="I57" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="1">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>31</v>
@@ -2877,15 +2877,15 @@
         <v>34</v>
       </c>
       <c r="I58" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="1">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>31</v>
@@ -2903,15 +2903,15 @@
         <v>34</v>
       </c>
       <c r="I59" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="1">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>31</v>
@@ -2929,15 +2929,15 @@
         <v>34</v>
       </c>
       <c r="I60" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="1">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>31</v>
@@ -2955,15 +2955,15 @@
         <v>34</v>
       </c>
       <c r="I61" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" s="1">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>31</v>
@@ -2981,15 +2981,15 @@
         <v>34</v>
       </c>
       <c r="I62" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" s="1">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>31</v>
@@ -3007,15 +3007,15 @@
         <v>34</v>
       </c>
       <c r="I63" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" s="1">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>31</v>
@@ -3033,15 +3033,15 @@
         <v>34</v>
       </c>
       <c r="I64" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="1">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>31</v>
@@ -3059,15 +3059,15 @@
         <v>34</v>
       </c>
       <c r="I65" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" s="1">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>31</v>
@@ -3085,15 +3085,15 @@
         <v>34</v>
       </c>
       <c r="I66" s="1">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" s="1">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>31</v>
@@ -3111,15 +3111,15 @@
         <v>34</v>
       </c>
       <c r="I67" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="1">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>31</v>
@@ -3137,15 +3137,15 @@
         <v>34</v>
       </c>
       <c r="I68" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="1">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>31</v>
@@ -3163,27 +3163,79 @@
         <v>34</v>
       </c>
       <c r="I69" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="1">
+        <v>154</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="1">
+        <v>155</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
-      <c r="B70" s="1">
+    <row r="72" spans="2:7">
+      <c r="B72" s="1">
         <v>201</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F70" s="1">
+      <c r="C72" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72" s="1">
         <v>2.2</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>92</v>
+      <c r="G72" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/技能配置.xlsx
+++ b/Data/Excel/技能配置.xlsx
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="J4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
   <si>
     <t>ResSkill</t>
   </si>
@@ -132,6 +132,9 @@
     <t>cd</t>
   </si>
   <si>
+    <t>add_damage</t>
+  </si>
+  <si>
     <t>logic_path</t>
   </si>
   <si>
@@ -159,6 +162,9 @@
     <t>技能CD</t>
   </si>
   <si>
+    <t>附加伤害（每击中敌人附加的伤害,攻击力+附加伤害）</t>
+  </si>
+  <si>
     <t>技能执行的逻辑路径文件</t>
   </si>
   <si>
@@ -186,7 +192,7 @@
     <t>51-99一般技能</t>
   </si>
   <si>
-    <t>玩家技能</t>
+    <t>玩家默认技能</t>
   </si>
   <si>
     <t>Active</t>
@@ -213,6 +219,48 @@
     <t>Config/Skill/Skill_53.bytes</t>
   </si>
   <si>
+    <t>创建并行子弹</t>
+  </si>
+  <si>
+    <t>创建一次性激光</t>
+  </si>
+  <si>
+    <t>Config/Skill/Skill_55.bytes</t>
+  </si>
+  <si>
+    <t>子弹19</t>
+  </si>
+  <si>
+    <t>子弹23</t>
+  </si>
+  <si>
+    <t>子弹40</t>
+  </si>
+  <si>
+    <t>子弹25</t>
+  </si>
+  <si>
+    <t>子弹46</t>
+  </si>
+  <si>
+    <t>子弹49</t>
+  </si>
+  <si>
+    <t>子弹50</t>
+  </si>
+  <si>
+    <t>子弹51</t>
+  </si>
+  <si>
+    <t>侧翼导弹</t>
+  </si>
+  <si>
+    <t>Config/Skill/Skill_64.bytes</t>
+  </si>
+  <si>
+    <t>可爆炸光球</t>
+  </si>
+  <si>
     <t>101-200创建子弹</t>
   </si>
   <si>
@@ -381,10 +429,28 @@
     <t>创建子弹55</t>
   </si>
   <si>
+    <t>201-300boss技能</t>
+  </si>
+  <si>
     <t>创建子弹2001_1</t>
   </si>
   <si>
     <t>Config/Skill/Boss_2001_1.bytes</t>
+  </si>
+  <si>
+    <t>Config/Skill/Boss_2001_2.bytes</t>
+  </si>
+  <si>
+    <t>创建子弹2001_3</t>
+  </si>
+  <si>
+    <t>Config/Skill/Boss_2001_3.bytes</t>
+  </si>
+  <si>
+    <t>创建子弹2001_4</t>
+  </si>
+  <si>
+    <t>Config/Skill/Boss_2001_4.bytes</t>
   </si>
 </sst>
 </file>
@@ -393,9 +459,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -406,16 +472,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,14 +494,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,24 +523,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,7 +541,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,7 +572,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,20 +580,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -536,15 +602,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,37 +625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,13 +637,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,25 +655,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,6 +691,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -673,13 +745,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,55 +799,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,9 +821,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,6 +865,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,23 +902,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,34 +911,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,10 +924,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,142 +936,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1355,10 +1424,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1367,12 +1436,14 @@
     <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
     <col min="3" max="5" width="16" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="8" width="46" style="1" customWidth="1"/>
-    <col min="9" max="9" width="41.875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="58.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1400,8 +1471,11 @@
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:9">
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1418,16 +1492,19 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1455,1787 +1532,2405 @@
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="43" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1">
         <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1">
         <v>0.1</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
+      <c r="G6" s="1">
+        <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="1">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:8">
       <c r="B7" s="1">
         <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1">
         <v>99999</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:7">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:8">
       <c r="B8" s="1">
         <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1">
         <v>99999</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="14" customHeight="1" spans="2:10">
       <c r="B9" s="1">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:8">
       <c r="B10" s="1">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="14" customHeight="1" spans="2:10">
       <c r="B11" s="1">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1">
         <v>0.1</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>33</v>
+      <c r="G11" s="1">
+        <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="1">
+        <v>35</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="14" customHeight="1" spans="2:10">
+      <c r="B12" s="1">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="14" customHeight="1" spans="2:10">
+      <c r="B13" s="1">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="1">
-        <v>104</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="H13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="14" customHeight="1" spans="2:10">
+      <c r="B14" s="1">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G14" s="1">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="14" customHeight="1" spans="2:10">
+      <c r="B15" s="1">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="2:9">
-      <c r="B13" s="1">
-        <v>1041</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="H15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="14" customHeight="1" spans="2:10">
+      <c r="B16" s="1">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="2:9">
-      <c r="B14" s="1">
-        <v>1042</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="H16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="14" customHeight="1" spans="2:10">
+      <c r="B17" s="1">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="1">
-        <v>105</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="H17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="14" customHeight="1" spans="2:10">
+      <c r="B18" s="1">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="2:9">
-      <c r="B16" s="1">
-        <v>1051</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="H18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="14" customHeight="1" spans="2:8">
+      <c r="B19" s="1">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G19" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="2:9">
-      <c r="B17" s="1">
-        <v>1052</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="1">
-        <v>106</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="2:9">
-      <c r="B19" s="1">
-        <v>1061</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="2:9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="14" customHeight="1" spans="2:10">
       <c r="B20" s="1">
-        <v>1062</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F20" s="1">
         <v>0.5</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>33</v>
+      <c r="G20" s="1">
+        <v>5</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B21" s="1">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F21" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="2:9">
+        <v>57</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="1">
-        <v>1071</v>
+        <v>102</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F22" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="2:9">
+        <v>57</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="1">
-        <v>1072</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F23" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>41</v>
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="1">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F24" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>33</v>
+        <v>1.5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:10">
       <c r="B25" s="1">
-        <v>109</v>
+        <v>1041</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>33</v>
+        <v>1.5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="2:10">
       <c r="B26" s="1">
-        <v>1091</v>
+        <v>1042</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>33</v>
+        <v>1.5</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="1">
-        <v>1092</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>33</v>
+      <c r="G27" s="1">
+        <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I27" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:10">
       <c r="B28" s="1">
-        <v>1093</v>
+        <v>1051</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>33</v>
+        <v>0.4</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="2:9">
+        <v>57</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="2:10">
       <c r="B29" s="1">
-        <v>1094</v>
+        <v>1052</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>33</v>
+        <v>0.4</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="2:9">
+        <v>57</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="1">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>33</v>
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:10">
       <c r="B31" s="1">
-        <v>112</v>
+        <v>1061</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>41</v>
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:10">
       <c r="B32" s="1">
-        <v>113</v>
+        <v>1062</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>33</v>
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I32" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33" s="1">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>33</v>
+        <v>0.2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I33" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
+        <v>57</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="2:10">
       <c r="B34" s="1">
-        <v>115</v>
+        <v>1071</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="I34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J34" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="2:10">
+      <c r="B35" s="1">
+        <v>1072</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="1">
+        <v>108</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="1">
         <v>0.1</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="1">
-        <v>116</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I35" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="2:9">
-      <c r="B36" s="1">
-        <v>1163</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>41</v>
+      <c r="G36" s="1">
+        <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I36" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37" s="1">
-        <v>1164</v>
+        <v>109</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>41</v>
+      <c r="G37" s="1">
+        <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:10">
+      <c r="B38" s="1">
+        <v>1091</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I37" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="1">
-        <v>117</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="J38" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:10">
+      <c r="B39" s="1">
+        <v>1092</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I38" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="1">
-        <v>119</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I39" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
+      <c r="J39" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:10">
       <c r="B40" s="1">
-        <v>120</v>
+        <v>1093</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J40" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:10">
+      <c r="B41" s="1">
+        <v>1094</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J41" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:10">
+      <c r="B42" s="1">
+        <v>111</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J42" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="1">
+        <v>112</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J43" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="1">
+        <v>113</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="1">
+        <v>114</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J45" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="1">
+        <v>115</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="1">
         <v>0.1</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I40" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="1">
-        <v>121</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="1">
-        <v>122</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I42" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="1">
-        <v>123</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I43" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="2:9">
-      <c r="B44" s="1">
-        <v>125</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I44" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="2:9">
-      <c r="B45" s="1">
-        <v>129</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I45" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="1">
-        <v>130</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>33</v>
+      <c r="G46" s="1">
+        <v>0</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I46" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J46" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
       <c r="B47" s="1">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>33</v>
+      <c r="G47" s="1">
+        <v>0</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I47" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
+        <v>57</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:10">
       <c r="B48" s="1">
-        <v>132</v>
+        <v>1163</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F48" s="1">
         <v>1</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>33</v>
+      <c r="G48" s="1">
+        <v>0</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I48" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
+        <v>57</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J48" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:10">
       <c r="B49" s="1">
-        <v>133</v>
+        <v>1164</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F49" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I49" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9">
+        <v>57</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J49" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
       <c r="B50" s="1">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F50" s="1">
         <v>0.5</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>33</v>
+      <c r="G50" s="1">
+        <v>0</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I50" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
+        <v>57</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J50" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
       <c r="B51" s="1">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F51" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>33</v>
+        <v>0.2</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I51" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J51" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
       <c r="B52" s="1">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F52" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>33</v>
+        <v>0.1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I52" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J52" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
       <c r="B53" s="1">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F53" s="1">
         <v>0.5</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>33</v>
+      <c r="G53" s="1">
+        <v>0</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I53" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J53" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
       <c r="B54" s="1">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F54" s="1">
         <v>0.5</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>33</v>
+      <c r="G54" s="1">
+        <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I54" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J54" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
       <c r="B55" s="1">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F55" s="1">
         <v>0.5</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>33</v>
+      <c r="G55" s="1">
+        <v>0</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I55" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:10">
       <c r="B56" s="1">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F56" s="1">
         <v>0.5</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>33</v>
+      <c r="G56" s="1">
+        <v>0</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I56" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:10">
       <c r="B57" s="1">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F57" s="1">
         <v>0.5</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>33</v>
+      <c r="G57" s="1">
+        <v>0</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I57" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J57" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
       <c r="B58" s="1">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J58" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="1">
+        <v>131</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J59" s="1">
         <v>31</v>
       </c>
-      <c r="E58" s="1" t="s">
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="1">
+        <v>132</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J60" s="1">
         <v>32</v>
       </c>
-      <c r="F58" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I58" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="1">
-        <v>143</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I59" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="1">
-        <v>144</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I60" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
+    </row>
+    <row r="61" spans="2:10">
       <c r="B61" s="1">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F61" s="1">
         <v>0.5</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>33</v>
+      <c r="G61" s="1">
+        <v>0</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I61" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J61" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
       <c r="B62" s="1">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F62" s="1">
         <v>0.5</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>33</v>
+      <c r="G62" s="1">
+        <v>0</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I62" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J62" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
       <c r="B63" s="1">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F63" s="1">
         <v>0.5</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>33</v>
+      <c r="G63" s="1">
+        <v>0</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I63" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J63" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
       <c r="B64" s="1">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F64" s="1">
         <v>0.5</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>33</v>
+      <c r="G64" s="1">
+        <v>0</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I64" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J64" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
       <c r="B65" s="1">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F65" s="1">
         <v>0.5</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>33</v>
+      <c r="G65" s="1">
+        <v>0</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I65" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J65" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
       <c r="B66" s="1">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F66" s="1">
         <v>0.5</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>33</v>
+      <c r="G66" s="1">
+        <v>0</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I66" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J66" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
       <c r="B67" s="1">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F67" s="1">
         <v>0.5</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>33</v>
+      <c r="G67" s="1">
+        <v>0</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I67" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J67" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
       <c r="B68" s="1">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F68" s="1">
         <v>0.5</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>33</v>
+      <c r="G68" s="1">
+        <v>0</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I68" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J68" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10">
       <c r="B69" s="1">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F69" s="1">
         <v>0.5</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>33</v>
+      <c r="G69" s="1">
+        <v>0</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I69" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J69" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
       <c r="B70" s="1">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F70" s="1">
         <v>0.5</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>33</v>
+      <c r="G70" s="1">
+        <v>0</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I70" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9">
+        <v>35</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J70" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10">
       <c r="B71" s="1">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F71" s="1">
         <v>0.5</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>33</v>
+      <c r="G71" s="1">
+        <v>0</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I71" s="1">
+        <v>35</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J71" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="1">
+        <v>144</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J72" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="1">
+        <v>145</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J73" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="1">
+        <v>146</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J74" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="1">
+        <v>147</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J75" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="1">
+        <v>148</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J76" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="1">
+        <v>149</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J77" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="1">
+        <v>150</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J78" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="1">
+        <v>151</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J79" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="1">
+        <v>152</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J80" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="1">
+        <v>153</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J81" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="1">
+        <v>154</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J82" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="1">
+        <v>155</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J83" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="2:7">
-      <c r="B72" s="1">
-        <v>201</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F72" s="1">
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="1">
         <v>2.2</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>96</v>
+      <c r="G84" s="1">
+        <v>2</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="1">
+        <v>5</v>
+      </c>
+      <c r="G85" s="1">
+        <v>5</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="2:8">
+      <c r="B86" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" s="1">
+        <v>5</v>
+      </c>
+      <c r="G86" s="1">
+        <v>2</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="2:8">
+      <c r="B87" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="1">
+        <v>5</v>
+      </c>
+      <c r="G87" s="1">
+        <v>5</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
